--- a/hw/S.xlsx
+++ b/hw/S.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="214">
-  <si>
-    <t xml:space="preserve">RANGE SALARY IS R1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="210">
   <si>
     <t xml:space="preserve">Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -261,220 +258,211 @@
     <t xml:space="preserve">Марина</t>
   </si>
   <si>
-    <t xml:space="preserve">Фирма</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--------------</t>
+    <t xml:space="preserve">Отец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; ------ &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Варя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Постройте иерархическую и сетевую модели этих данных.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дима</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие из приведенных ниже баз данных соответствуют SQL модели данных, но не соответствуют истинной реляционной модели данных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">б)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Постройте первичный ключ для таблицы базы данных кинотеатра,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">которая содержит название и страну выпуска фильма, зал показа,возрастное ограничение, а также дату премьеры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возраст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Во избежание коллизий, возьмем первичным ключем уникальный ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чужой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">США</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Италия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Венгрия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иксы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В базе данных кадровиков хранится информация о классах, в которых учились выпускники и о ЕГЭ. Какие из приведенных примеров такой базы данных </t>
+  </si>
+  <si>
+    <t xml:space="preserve">нарушают требование целостности данных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">б, в, г, д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕГЭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Класс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сидоров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Био</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Егорова</t>
   </si>
   <si>
     <t xml:space="preserve">Отдел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сотрудники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постройте иерархическую и сетевую модели этих данных.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Варя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дима</t>
-  </si>
-  <si>
-    <t xml:space="preserve">руководители</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие из приведенных ниже баз данных соответствуют SQL модели данных, но не соответствуют истинной реляционной модели данных?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">а)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">б)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">а</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постройте первичный ключ для таблицы базы данных кинотеатра,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">которая содержит название и страну выпуска фильма, зал показа,возрастное ограничение, а также дату премьеры.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возраст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Во избежание коллизий, возьмем первичным ключем уникальный ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чужой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">США</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Италия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Волк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Венгрия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иксы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В базе данных кадровиков хранится информация о классах, в которых учились выпускники и о ЕГЭ. Какие из приведенных примеров такой базы данных </t>
-  </si>
-  <si>
-    <t xml:space="preserve">нарушают требование целостности данных?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">б, в, г, д</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фамилия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕГЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Класс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сергей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сидоров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евгений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Био</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мария</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Егорова</t>
   </si>
   <si>
     <t xml:space="preserve">NULL</t>
@@ -733,6 +721,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -763,19 +752,18 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -833,7 +821,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,11 +866,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -898,11 +882,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,7 +902,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -927,6 +915,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1013,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:AI225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E220" activeCellId="0" sqref="E220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA61" activeCellId="0" sqref="AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1032,21 +1024,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,278 +1044,278 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="H7" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>67</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,13 +1326,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="7"/>
       <c r="H19" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1351,10 +1341,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>2</v>
@@ -1363,10 +1353,10 @@
         <v>6</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R21" s="9" t="n">
         <v>89</v>
@@ -1375,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>7</v>
@@ -1395,16 +1385,16 @@
         <v>7</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="9" t="n">
         <v>78</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U22" s="9" t="n">
         <v>6</v>
@@ -1412,13 +1402,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" s="9" t="n">
         <v>89</v>
@@ -1427,10 +1417,10 @@
         <v>45</v>
       </c>
       <c r="O23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="R23" s="9" t="n">
         <v>5</v>
@@ -1439,30 +1429,30 @@
         <v>4</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="N24" s="9" t="n">
         <v>32</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24" s="9" t="n">
         <v>890</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,23 +1460,23 @@
         <v>109</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O26" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1495,54 +1485,54 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="Q29" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="0" t="s">
+      <c r="T29" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="0" t="s">
+      <c r="W29" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="8" t="n">
         <v>15</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" s="8" t="n">
         <v>7</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8" t="n">
         <v>15</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R30" s="8" t="n">
         <v>15</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U30" s="8" t="n">
         <v>34</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X30" s="8" t="n">
         <v>7</v>
@@ -1550,46 +1540,46 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="I31" s="8" t="n">
         <v>3</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31" s="8" t="n">
         <v>15</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8" t="n">
         <v>3</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R31" s="8" t="n">
         <v>3</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U31" s="8" t="n">
         <v>8</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X31" s="8" t="n">
         <v>14</v>
@@ -1597,25 +1587,25 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="8" t="n">
         <v>34</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L32" s="8" t="n">
         <v>14</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O32" s="8" t="n">
         <v>34</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U32" s="8" t="n">
         <v>2</v>
@@ -1623,19 +1613,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I33" s="8" t="n">
         <v>8</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="8" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8" t="n">
         <v>8</v>
@@ -1643,13 +1633,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="8" t="n">
         <v>2</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" s="8" t="n">
         <v>2</v>
@@ -1657,7 +1647,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N35" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O35" s="8" t="n">
         <v>7</v>
@@ -1665,10 +1655,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8" t="n">
         <v>14</v>
@@ -1676,13 +1666,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="W38" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,19 +1680,19 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S39" s="8" t="n">
         <v>1</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W39" s="8" t="n">
         <v>1</v>
@@ -1710,25 +1700,25 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K40" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="8" t="s">
+      <c r="R40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="S40" s="8" t="n">
         <v>1</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W40" s="8" t="n">
         <v>2</v>
@@ -1736,34 +1726,34 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="H41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="K41" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="S41" s="8" t="n">
         <v>1</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W41" s="8" t="n">
         <v>3</v>
@@ -1771,19 +1761,19 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H42" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="8" t="n">
         <v>3</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S42" s="8" t="n">
         <v>2</v>
@@ -1791,10 +1781,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="S43" s="8" t="n">
         <v>2</v>
@@ -1802,13 +1792,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S44" s="8" t="n">
         <v>2</v>
@@ -1816,10 +1806,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q45" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S45" s="8" t="n">
         <v>3</v>
@@ -1827,13 +1817,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="S46" s="8" t="n">
         <v>3</v>
@@ -1841,10 +1831,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q47" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S47" s="8" t="n">
         <v>3</v>
@@ -1856,82 +1846,82 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="12" t="s">
+      <c r="I50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="13" t="n">
+      <c r="H51" s="12" t="n">
         <v>45544</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51" s="8" t="n">
         <v>9</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O51" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="O51" s="12" t="n">
         <v>45544</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="8" t="n">
         <v>9</v>
       </c>
       <c r="R51" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="12" t="n">
+        <v>45534</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="13" t="n">
-        <v>45534</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="K52" s="8" t="n">
         <v>5</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O52" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="O52" s="12" t="n">
         <v>45534</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q52" s="8" t="n">
         <v>9</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1949,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,15 +1964,15 @@
         <v>3</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="H59" s="8" t="n">
         <v>86</v>
@@ -1991,7 +1981,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59" s="8" t="n">
         <v>87</v>
@@ -2030,15 +2020,15 @@
         <v>9</v>
       </c>
       <c r="U62" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="X62" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="X62" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U63" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,71 +2036,60 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U64" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U64" s="14" t="s">
+      <c r="V64" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="V64" s="0" t="s">
+      <c r="X64" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="X64" s="0" t="s">
+      <c r="Y64" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Y64" s="0" t="s">
+      <c r="Z64" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB64" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="Z64" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA64" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB64" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X65" s="14"/>
+      <c r="Z65" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA65" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W66" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="V65" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="W65" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z65" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB65" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC65" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V66" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="W66" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="X66" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z66" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB66" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC66" s="0" t="s">
-        <v>77</v>
+      <c r="Z66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA66" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,38 +2097,21 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V67" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="V67" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z67" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB67" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC67" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X68" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z68" s="0" t="s">
-        <v>69</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AB67" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I69" s="8" t="n">
         <v>1</v>
@@ -2158,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M69" s="8" t="n">
         <v>2</v>
@@ -2172,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M70" s="8" t="n">
         <v>2</v>
@@ -2186,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M71" s="8" t="n">
         <v>2</v>
@@ -2197,24 +2159,24 @@
         <v>4</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M72" s="8" t="n">
         <v>4</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G74" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I74" s="8" t="n">
         <v>67</v>
@@ -2223,16 +2185,16 @@
         <v>67</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L74" s="8" t="n">
         <v>1</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,30 +2236,30 @@
         <v>4</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G79" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9" t="n">
         <v>9</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,11 +2267,11 @@
         <v>8</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80" s="16"/>
       <c r="L80" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M80" s="9" t="n">
         <v>2</v>
@@ -2320,11 +2282,11 @@
         <v>45</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K81" s="16"/>
       <c r="L81" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M81" s="9" t="n">
         <v>2</v>
@@ -2335,11 +2297,11 @@
         <v>4</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M82" s="9" t="n">
         <v>4</v>
@@ -2347,16 +2309,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G84" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I84" s="8" t="n">
         <v>1</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L84" s="8" t="n">
         <v>1</v>
@@ -2365,7 +2327,7 @@
         <v>9876</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L85" s="8" t="n">
         <v>2</v>
@@ -2387,7 +2349,7 @@
         <v>78</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L86" s="8" t="n">
         <v>3</v>
@@ -2401,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L87" s="8" t="n">
         <v>4</v>
@@ -2415,55 +2377,55 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I91" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K91" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>101</v>
+      <c r="K91" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H92" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M92" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="P92" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P92" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K93" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M93" s="18" t="n">
         <v>36892</v>
@@ -2491,16 +2453,16 @@
         <v>2</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K94" s="8" t="n">
         <v>2</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M94" s="18" t="n">
         <v>39815</v>
@@ -2511,16 +2473,16 @@
         <v>3</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K95" s="8" t="n">
         <v>3</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M95" s="18" t="n">
         <v>43833</v>
@@ -2531,16 +2493,16 @@
         <v>4</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K96" s="8" t="n">
         <v>1</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M96" s="18" t="n">
         <v>36892</v>
@@ -2551,16 +2513,16 @@
         <v>5</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K97" s="8" t="n">
         <v>3</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M97" s="18" t="n">
         <v>42374</v>
@@ -2571,666 +2533,666 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H103" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I103" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M103" s="12" t="s">
-        <v>55</v>
+      <c r="J103" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K104" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M104" s="12" t="s">
-        <v>127</v>
+      <c r="H104" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H105" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J105" s="8" t="n">
         <v>290</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N105" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O105" s="12" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O105" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H106" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J106" s="8" t="n">
         <v>302</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N106" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O106" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O106" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H107" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J107" s="8" t="n">
         <v>300</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H108" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J108" s="8" t="n">
         <v>296</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H109" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J109" s="8" t="n">
         <v>298</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H111" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I111" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>99</v>
+      <c r="J111" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="K111" s="20"/>
-      <c r="M111" s="12" t="s">
-        <v>55</v>
+      <c r="M111" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H112" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I112" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J112" s="12" t="s">
-        <v>127</v>
+      <c r="H112" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="K112" s="20"/>
-      <c r="M112" s="12" t="s">
-        <v>127</v>
+      <c r="M112" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K113" s="21"/>
       <c r="M113" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N113" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O113" s="12" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K114" s="21"/>
       <c r="M114" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N114" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O114" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O114" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K115" s="21"/>
       <c r="N115" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K116" s="21"/>
       <c r="N116" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K117" s="21"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H119" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I119" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I119" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K119" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M119" s="12" t="s">
-        <v>55</v>
+      <c r="J119" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H120" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J120" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K120" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M120" s="12" t="s">
-        <v>127</v>
+      <c r="H120" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J121" s="8" t="n">
         <v>290</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N121" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O121" s="12" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J122" s="8" t="n">
         <v>302</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N122" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O122" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O122" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J123" s="8" t="n">
         <v>300</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J124" s="8" t="n">
         <v>296</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J125" s="8" t="n">
         <v>298</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H127" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I127" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J127" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K127" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M127" s="12" t="s">
-        <v>55</v>
+      <c r="J127" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H128" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K128" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M128" s="12" t="s">
-        <v>127</v>
+      <c r="H128" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J129" s="8" t="n">
         <v>290</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O129" s="12" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J130" s="8" t="n">
         <v>302</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N130" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="O130" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J131" s="8" t="n">
         <v>300</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J132" s="8" t="n">
         <v>296</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N132" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J133" s="8" t="n">
         <v>298</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F135" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H135" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I135" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I135" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K135" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>55</v>
+      <c r="J135" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K136" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M136" s="12" t="s">
-        <v>127</v>
+      <c r="H136" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J137" s="8" t="n">
         <v>290</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J138" s="8" t="n">
         <v>302</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J139" s="8" t="n">
         <v>300</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J140" s="8" t="n">
         <v>296</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J141" s="8" t="n">
         <v>298</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,58 +3200,58 @@
         <v>11</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K145" s="12" t="s">
-        <v>146</v>
+      <c r="K145" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H146" s="12" t="s">
-        <v>146</v>
+      <c r="H146" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,41 +3259,41 @@
         <v>12</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N152" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H152" s="12" t="s">
+      <c r="O152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S152" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I152" s="12" t="s">
+      <c r="T152" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="J152" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="M152" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="N152" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="O152" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="R152" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="S152" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="T152" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I153" s="8" t="n">
         <v>15000</v>
@@ -3340,10 +3302,10 @@
         <v>1</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N153" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O153" s="8" t="n">
         <v>2</v>
@@ -3352,21 +3314,21 @@
         <v>1</v>
       </c>
       <c r="S153" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T153" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F154" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G154" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="H154" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I154" s="8" t="n">
         <v>30000</v>
@@ -3375,33 +3337,33 @@
         <v>1</v>
       </c>
       <c r="L154" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="M154" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N154" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O154" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="R154" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T154" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="M154" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N154" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O154" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="R154" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S154" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="T154" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I155" s="8" t="n">
         <v>60000</v>
@@ -3410,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="M155" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O155" s="8" t="n">
         <v>2</v>
@@ -3421,7 +3383,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I156" s="8" t="n">
         <v>17000</v>
@@ -3430,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="M156" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O156" s="8" t="n">
         <v>1</v>
@@ -3441,7 +3403,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I157" s="8" t="n">
         <v>23000</v>
@@ -3450,24 +3412,24 @@
         <v>1</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O157" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="R157" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="S157" s="12" t="s">
-        <v>177</v>
+      <c r="R157" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="S157" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I158" s="8" t="n">
         <v>25000</v>
@@ -3476,19 +3438,19 @@
         <v>2</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N158" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O158" s="8" t="n">
         <v>2</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="R158" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S158" s="23" t="n">
         <v>45627</v>
@@ -3496,7 +3458,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I159" s="8" t="n">
         <v>32000</v>
@@ -3505,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="R159" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S159" s="23" t="n">
         <v>45047</v>
@@ -3513,7 +3475,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I160" s="8" t="n">
         <v>16000</v>
@@ -3524,7 +3486,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I161" s="8" t="n">
         <v>20000</v>
@@ -3535,7 +3497,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I162" s="8" t="n">
         <v>40000</v>
@@ -3544,86 +3506,86 @@
         <v>2</v>
       </c>
       <c r="M162" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S162" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="S162" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="Y162" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AE162" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M163" s="12" t="s">
+      <c r="M163" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="O163" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P163" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="N163" s="12" t="s">
+      <c r="Q163" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="O163" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="P163" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q163" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="S163" s="12" t="s">
+      <c r="S163" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T163" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="U163" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="V163" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="T163" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="U163" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="V163" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="W163" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y163" s="12" t="s">
+      <c r="W163" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y163" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z163" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA163" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB163" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Z163" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA163" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB163" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC163" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE163" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF163" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG163" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH163" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI163" s="12" t="s">
-        <v>177</v>
+      <c r="AC163" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE163" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF163" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG163" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH163" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI163" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M164" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N164" s="8" t="n">
         <v>15000</v>
@@ -3632,52 +3594,52 @@
         <v>1</v>
       </c>
       <c r="P164" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q164" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S164" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T164" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="U164" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V164" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S164" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="T164" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="U164" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V164" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="W164" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y164" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Z164" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA164" s="8" t="n">
         <v>2</v>
       </c>
       <c r="AB164" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AC164" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AE164" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AF164" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG164" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AH164" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AI164" s="23" t="n">
         <v>45627</v>
@@ -3685,7 +3647,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M165" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N165" s="8" t="n">
         <v>30000</v>
@@ -3694,52 +3656,52 @@
         <v>1</v>
       </c>
       <c r="P165" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q165" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S165" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T165" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="U165" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V165" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="W165" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y165" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z165" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA165" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB165" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC165" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE165" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF165" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S165" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="T165" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="U165" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V165" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="W165" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y165" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z165" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA165" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB165" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC165" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE165" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF165" s="8" t="s">
+      <c r="AG165" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH165" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="AG165" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH165" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="AI165" s="23" t="n">
         <v>45047</v>
@@ -3747,13 +3709,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M166" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N166" s="8" t="n">
         <v>60000</v>
@@ -3762,52 +3724,52 @@
         <v>1</v>
       </c>
       <c r="P166" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q166" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S166" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="T166" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="U166" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V166" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S166" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="T166" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="U166" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V166" s="8" t="s">
+      <c r="W166" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y166" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z166" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA166" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB166" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC166" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE166" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF166" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG166" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH166" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="W166" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y166" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z166" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA166" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB166" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC166" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE166" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF166" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG166" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH166" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="AI166" s="23" t="n">
         <v>45047</v>
@@ -3815,13 +3777,13 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M167" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N167" s="8" t="n">
         <v>17000</v>
@@ -3830,52 +3792,52 @@
         <v>1</v>
       </c>
       <c r="P167" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q167" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S167" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T167" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U167" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V167" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="W167" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y167" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z167" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA167" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB167" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC167" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE167" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF167" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S167" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T167" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="U167" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V167" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="W167" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y167" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z167" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA167" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB167" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC167" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE167" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF167" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="AG167" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AH167" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AI167" s="23" t="n">
         <v>45627</v>
@@ -3883,13 +3845,13 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M168" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N168" s="8" t="n">
         <v>23000</v>
@@ -3898,51 +3860,51 @@
         <v>1</v>
       </c>
       <c r="P168" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q168" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S168" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="T168" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="U168" s="8" t="n">
         <v>1</v>
       </c>
       <c r="V168" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W168" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y168" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z168" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA168" s="8" t="n">
         <v>1</v>
       </c>
       <c r="AB168" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AC168" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M169" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N169" s="8" t="n">
         <v>25000</v>
@@ -3951,45 +3913,45 @@
         <v>2</v>
       </c>
       <c r="P169" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q169" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="S169" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="T169" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Q169" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="S169" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="T169" s="8" t="s">
+      <c r="U169" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V169" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="W169" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y169" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="U169" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V169" s="8" t="s">
+      <c r="Z169" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="W169" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y169" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z169" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="AA169" s="8" t="n">
         <v>2</v>
       </c>
       <c r="AB169" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AC169" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M170" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N170" s="8" t="n">
         <v>32000</v>
@@ -3998,10 +3960,25 @@
         <v>2</v>
       </c>
       <c r="P170" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q170" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="Y170" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z170" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA170" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB170" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC170" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,10 +3986,10 @@
         <v>13</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N171" s="8" t="n">
         <v>16000</v>
@@ -4021,18 +3998,33 @@
         <v>2</v>
       </c>
       <c r="P171" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q171" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="Y171" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z171" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA171" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB171" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC171" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N172" s="8" t="n">
         <v>20000</v>
@@ -4041,15 +4033,30 @@
         <v>2</v>
       </c>
       <c r="P172" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q172" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="Y172" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z172" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA172" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB172" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC172" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M173" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N173" s="8" t="n">
         <v>40000</v>
@@ -4058,43 +4065,90 @@
         <v>2</v>
       </c>
       <c r="P173" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q173" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y173" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z173" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Q173" s="8" t="s">
-        <v>172</v>
+      <c r="AA173" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB173" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC173" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="Y174" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z174" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA174" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB174" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC174" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y175" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z175" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA175" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB175" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC175" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F176" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="J176" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="L176" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M176" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="J176" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="K176" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="L176" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="M176" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J177" s="0" t="n">
         <v>0</v>
@@ -4156,54 +4210,54 @@
         <v>14</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J182" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K182" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L182" s="12" t="s">
-        <v>159</v>
+        <v>193</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K182" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L182" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L183" s="8" t="n">
         <v>2</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,43 +4265,43 @@
         <v>15</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,12 +4309,12 @@
         <v>16</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,31 +4322,31 @@
         <v>17</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H205" s="14" t="s">
-        <v>68</v>
+      <c r="H205" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H207" s="14" t="s">
-        <v>68</v>
+      <c r="H207" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4300,12 +4354,12 @@
         <v>18</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,35 +4367,35 @@
         <v>19</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H214" s="12" t="s">
+      <c r="H214" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I214" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K214" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I214" s="12" t="s">
+      <c r="L214" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K214" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L214" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="M214" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="N214" s="12" t="s">
-        <v>177</v>
+      <c r="M214" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I215" s="8" t="n">
         <v>15000</v>
@@ -4350,21 +4404,21 @@
         <v>1</v>
       </c>
       <c r="K215" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M215" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N215" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I216" s="8" t="n">
         <v>30000</v>
@@ -4373,13 +4427,13 @@
         <v>1</v>
       </c>
       <c r="K216" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N216" s="23" t="n">
         <v>45047</v>
@@ -4387,7 +4441,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I217" s="8" t="n">
         <v>60000</v>
@@ -4396,21 +4450,21 @@
         <v>1</v>
       </c>
       <c r="K217" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N217" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I218" s="8" t="n">
         <v>17000</v>
@@ -4419,21 +4473,21 @@
         <v>1</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M218" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N218" s="24" t="n">
+        <v>161</v>
+      </c>
+      <c r="N218" s="25" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I219" s="8" t="n">
         <v>23000</v>
@@ -4442,21 +4496,21 @@
         <v>1</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M219" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N219" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I220" s="8" t="n">
         <v>25000</v>
@@ -4465,21 +4519,21 @@
         <v>2</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N220" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I221" s="8" t="n">
         <v>32000</v>
@@ -4488,21 +4542,21 @@
         <v>2</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N221" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I222" s="8" t="n">
         <v>16000</v>
@@ -4511,21 +4565,21 @@
         <v>2</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N222" s="24" t="n">
+        <v>161</v>
+      </c>
+      <c r="N222" s="25" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I223" s="8" t="n">
         <v>20000</v>
@@ -4534,21 +4588,21 @@
         <v>2</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N223" s="24" t="n">
+        <v>161</v>
+      </c>
+      <c r="N223" s="25" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I224" s="8" t="n">
         <v>40000</v>
@@ -4557,13 +4611,13 @@
         <v>2</v>
       </c>
       <c r="K224" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L224" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M224" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="L224" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="M224" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="N224" s="23" t="n">
         <v>45047</v>
@@ -4571,7 +4625,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I225" s="8" t="n">
         <v>17000</v>
@@ -4580,13 +4634,13 @@
         <v>1</v>
       </c>
       <c r="K225" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M225" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N225" s="23" t="n">
         <v>45047</v>

--- a/hw/S.xlsx
+++ b/hw/S.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="210">
   <si>
     <t xml:space="preserve">Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -693,7 +693,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -759,12 +759,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -821,7 +815,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,10 +876,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,7 +908,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1003,10 +993,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI225"/>
+  <dimension ref="A1:AI229"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA61" activeCellId="0" sqref="AA61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A174" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M187" activeCellId="0" sqref="M187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2056,7 +2046,7 @@
       <c r="AA64" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AB64" s="15" t="s">
+      <c r="AB64" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2249,7 +2239,7 @@
       <c r="J79" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="K79" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L79" s="9" t="s">
@@ -2269,7 +2259,7 @@
       <c r="J80" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K80" s="16"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="9" t="s">
         <v>87</v>
       </c>
@@ -2284,7 +2274,7 @@
       <c r="J81" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K81" s="16"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="9" t="s">
         <v>88</v>
       </c>
@@ -2299,7 +2289,7 @@
       <c r="J82" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K82" s="16"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="9" t="s">
         <v>89</v>
       </c>
@@ -2386,7 +2376,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H91" s="17" t="s">
+      <c r="H91" s="16" t="s">
         <v>93</v>
       </c>
       <c r="I91" s="11" t="s">
@@ -2406,7 +2396,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="16" t="s">
         <v>97</v>
       </c>
       <c r="I92" s="11" t="s">
@@ -2429,7 +2419,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="17" t="n">
+      <c r="H93" s="16" t="n">
         <v>1</v>
       </c>
       <c r="I93" s="8" t="s">
@@ -2444,12 +2434,12 @@
       <c r="L93" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M93" s="18" t="n">
+      <c r="M93" s="17" t="n">
         <v>36892</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="17" t="n">
+      <c r="H94" s="16" t="n">
         <v>2</v>
       </c>
       <c r="I94" s="8" t="s">
@@ -2464,12 +2454,12 @@
       <c r="L94" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M94" s="18" t="n">
+      <c r="M94" s="17" t="n">
         <v>39815</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H95" s="17" t="n">
+      <c r="H95" s="16" t="n">
         <v>3</v>
       </c>
       <c r="I95" s="8" t="s">
@@ -2484,12 +2474,12 @@
       <c r="L95" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M95" s="18" t="n">
+      <c r="M95" s="17" t="n">
         <v>43833</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H96" s="17" t="n">
+      <c r="H96" s="16" t="n">
         <v>4</v>
       </c>
       <c r="I96" s="8" t="s">
@@ -2504,12 +2494,12 @@
       <c r="L96" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M96" s="18" t="n">
+      <c r="M96" s="17" t="n">
         <v>36892</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H97" s="17" t="n">
+      <c r="H97" s="16" t="n">
         <v>5</v>
       </c>
       <c r="I97" s="8" t="s">
@@ -2524,7 +2514,7 @@
       <c r="L97" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M97" s="18" t="n">
+      <c r="M97" s="17" t="n">
         <v>42374</v>
       </c>
     </row>
@@ -2686,7 +2676,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="18" t="s">
         <v>81</v>
       </c>
       <c r="H111" s="11" t="s">
@@ -2698,7 +2688,7 @@
       <c r="J111" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K111" s="20"/>
+      <c r="K111" s="19"/>
       <c r="M111" s="11" t="s">
         <v>54</v>
       </c>
@@ -2713,7 +2703,7 @@
       <c r="J112" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K112" s="20"/>
+      <c r="K112" s="19"/>
       <c r="M112" s="11" t="s">
         <v>122</v>
       </c>
@@ -2728,7 +2718,7 @@
       <c r="J113" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K113" s="21"/>
+      <c r="K113" s="20"/>
       <c r="M113" s="8" t="s">
         <v>125</v>
       </c>
@@ -2749,7 +2739,7 @@
       <c r="J114" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K114" s="21"/>
+      <c r="K114" s="20"/>
       <c r="M114" s="8" t="s">
         <v>127</v>
       </c>
@@ -2770,7 +2760,7 @@
       <c r="J115" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K115" s="21"/>
+      <c r="K115" s="20"/>
       <c r="N115" s="8" t="s">
         <v>131</v>
       </c>
@@ -2788,7 +2778,7 @@
       <c r="J116" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K116" s="21"/>
+      <c r="K116" s="20"/>
       <c r="N116" s="8" t="s">
         <v>134</v>
       </c>
@@ -2806,10 +2796,10 @@
       <c r="J117" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K117" s="21"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="19" t="s">
+      <c r="F119" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H119" s="11" t="s">
@@ -2946,7 +2936,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="22" t="s">
+      <c r="F127" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H127" s="11" t="s">
@@ -3083,7 +3073,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="19" t="s">
+      <c r="F135" s="18" t="s">
         <v>139</v>
       </c>
       <c r="H135" s="11" t="s">
@@ -3452,7 +3442,7 @@
       <c r="R158" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="S158" s="23" t="n">
+      <c r="S158" s="22" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -3469,7 +3459,7 @@
       <c r="R159" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="S159" s="23" t="n">
+      <c r="S159" s="22" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -3641,7 +3631,7 @@
       <c r="AH164" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AI164" s="23" t="n">
+      <c r="AI164" s="22" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -3703,7 +3693,7 @@
       <c r="AH165" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="AI165" s="23" t="n">
+      <c r="AI165" s="22" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -3771,7 +3761,7 @@
       <c r="AH166" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="AI166" s="23" t="n">
+      <c r="AI166" s="22" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -3839,7 +3829,7 @@
       <c r="AH167" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AI167" s="23" t="n">
+      <c r="AI167" s="22" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4015,7 +4005,7 @@
       <c r="AB171" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AC171" s="24" t="s">
+      <c r="AC171" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4050,7 +4040,7 @@
       <c r="AB172" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AC172" s="24" t="s">
+      <c r="AC172" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4082,7 +4072,7 @@
       <c r="AB173" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AC173" s="24" t="s">
+      <c r="AC173" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4102,7 +4092,7 @@
       <c r="AB174" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AC174" s="24" t="s">
+      <c r="AC174" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4119,7 +4109,7 @@
       <c r="AB175" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="AC175" s="24" t="s">
+      <c r="AC175" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4251,246 +4241,209 @@
       <c r="B184" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="J184" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L184" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q184" s="1" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J185" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L185" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q185" s="1"/>
+    </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="1" t="s">
+      <c r="J186" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K186" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L186" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J187" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L187" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J188" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L188" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H190" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K190" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H191" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="K191" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H192" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="0" t="s">
-        <v>203</v>
+        <v>36</v>
+      </c>
+      <c r="K194" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="0" t="s">
         <v>201</v>
       </c>
+      <c r="K195" s="0" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="2" t="s">
         <v>202</v>
       </c>
     </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H198" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H201" s="2" t="s">
-        <v>205</v>
+      <c r="H199" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H205" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H205" s="13" t="s">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H209" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I205" s="0" t="s">
+      <c r="I209" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H206" s="0" t="s">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="K206" s="0" t="s">
+      <c r="K210" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H207" s="13" t="s">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H211" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I207" s="0" t="s">
+      <c r="I211" s="0" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D210" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D214" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H214" s="11" t="s">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H218" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I214" s="11" t="s">
+      <c r="I218" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="J214" s="11" t="s">
+      <c r="J218" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K214" s="11" t="s">
+      <c r="K218" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L214" s="11" t="s">
+      <c r="L218" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="M214" s="11" t="s">
+      <c r="M218" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="N214" s="11" t="s">
+      <c r="N218" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H215" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I215" s="8" t="n">
-        <v>15000</v>
-      </c>
-      <c r="J215" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K215" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L215" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M215" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N215" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H216" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I216" s="8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J216" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K216" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L216" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M216" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N216" s="23" t="n">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H217" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I217" s="8" t="n">
-        <v>60000</v>
-      </c>
-      <c r="J217" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K217" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L217" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M217" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N217" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H218" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I218" s="8" t="n">
-        <v>17000</v>
-      </c>
-      <c r="J218" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K218" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L218" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M218" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N218" s="25" t="n">
-        <v>45627</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="I219" s="8" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="J219" s="8" t="n">
         <v>1</v>
@@ -4504,108 +4457,108 @@
       <c r="M219" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="N219" s="23" t="s">
+      <c r="N219" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="8" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="I220" s="8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="J220" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N220" s="23" t="s">
-        <v>138</v>
+        <v>171</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>45047</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I221" s="8" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="J221" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M221" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="N221" s="23" t="s">
+      <c r="N221" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I222" s="8" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="J222" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M222" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N222" s="25" t="n">
+      <c r="N222" s="24" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="8" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I223" s="8" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="J223" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N223" s="25" t="n">
-        <v>45627</v>
+        <v>138</v>
+      </c>
+      <c r="N223" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I224" s="8" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="J224" s="8" t="n">
         <v>2</v>
@@ -4617,32 +4570,124 @@
         <v>168</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N224" s="23" t="n">
-        <v>45047</v>
+        <v>138</v>
+      </c>
+      <c r="N224" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I225" s="8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J225" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L225" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M225" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N225" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H226" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I226" s="8" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J226" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K226" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L226" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M226" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N226" s="24" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H227" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I227" s="8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J227" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L227" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M227" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N227" s="24" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H228" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I228" s="8" t="n">
+        <v>40000</v>
+      </c>
+      <c r="J228" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L228" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M228" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N228" s="22" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I225" s="8" t="n">
+      <c r="I229" s="8" t="n">
         <v>17000</v>
       </c>
-      <c r="J225" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K225" s="8" t="s">
+      <c r="J229" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L225" s="8" t="s">
+      <c r="L229" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M225" s="8" t="s">
+      <c r="M229" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="N225" s="23" t="n">
+      <c r="N229" s="22" t="n">
         <v>45047</v>
       </c>
     </row>
